--- a/Updated Feature Backlog.xlsx
+++ b/Updated Feature Backlog.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
   <si>
     <t>Stories</t>
   </si>
@@ -121,15 +121,9 @@
     <t>In Progress</t>
   </si>
   <si>
-    <t>Game Description Page GUI</t>
-  </si>
-  <si>
     <t>Not Started</t>
   </si>
   <si>
-    <t>Simple Battle Page GUI</t>
-  </si>
-  <si>
     <t>Usernames Stored and Retrieved from Database</t>
   </si>
   <si>
@@ -142,36 +136,21 @@
     <t>HP and Food Increase/Decrease</t>
   </si>
   <si>
-    <t>View Score for Current Session</t>
-  </si>
-  <si>
     <t>Dice Roll Animation</t>
   </si>
   <si>
     <t>Display Result of Dice Roll and Computation</t>
   </si>
   <si>
-    <t>Save Current Stats to File</t>
-  </si>
-  <si>
     <t>User Guide</t>
   </si>
   <si>
-    <t>Full Battle Page GUI</t>
-  </si>
-  <si>
-    <t>View Past Statistics</t>
-  </si>
-  <si>
     <t>User Can Special Attack</t>
   </si>
   <si>
     <t>MP Increase/Decrease</t>
   </si>
   <si>
-    <t>User Can Save and Load Stats to and from Database</t>
-  </si>
-  <si>
     <t>User Can Exit With Data Saved</t>
   </si>
   <si>
@@ -247,12 +226,6 @@
     <t>14,15</t>
   </si>
   <si>
-    <t>Mode Select Page GUI</t>
-  </si>
-  <si>
-    <t>Enter Username (For Playing Against Computer) Page GUI</t>
-  </si>
-  <si>
     <t>Player Stats Page GUI</t>
   </si>
   <si>
@@ -268,12 +241,6 @@
     <t>User Vs Computer Mode</t>
   </si>
   <si>
-    <t>View All Statistics (Not just wins/losses)</t>
-  </si>
-  <si>
-    <t>Compute Wins and Losses Stats</t>
-  </si>
-  <si>
     <t>13,14,15</t>
   </si>
   <si>
@@ -281,13 +248,43 @@
   </si>
   <si>
     <t>Have everything completed, and documentation updated</t>
+  </si>
+  <si>
+    <t>Sources: https://www.mountaingoatsoftware.com/agile/scrum/sprint-backlog</t>
+  </si>
+  <si>
+    <t>Battle Page GUI</t>
+  </si>
+  <si>
+    <t>Game Description Page GUI?</t>
+  </si>
+  <si>
+    <t>Save Current Data to File</t>
+  </si>
+  <si>
+    <t>Keep Track of Data, Calculate Score, Win Percentage</t>
+  </si>
+  <si>
+    <t>Display Score on Battle Page</t>
+  </si>
+  <si>
+    <t>View Data/Statistics on Wiew Statistics Page</t>
+  </si>
+  <si>
+    <t>User can load and save data in middle of game?</t>
+  </si>
+  <si>
+    <t>Enter Username (For Playing Against Computer) Page GUI? Already done?</t>
+  </si>
+  <si>
+    <t>View Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +303,26 @@
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -455,36 +472,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,14 +809,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="27" t="s">
+    <row r="3" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -804,7 +824,7 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -812,7 +832,7 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -820,8 +840,8 @@
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>55</v>
+      <c r="B6" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -836,7 +856,7 @@
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -844,7 +864,7 @@
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -852,7 +872,7 @@
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -864,51 +884,51 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="B12" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="B13" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="B14" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>12</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="B15" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
         <v>13</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>56</v>
+      <c r="B16" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -916,7 +936,7 @@
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -928,24 +948,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="B21" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>60</v>
+      <c r="B22" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -957,839 +977,821 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="7.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="16"/>
+    <col min="11" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="C1" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22" t="s">
+      <c r="I3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="22">
-        <v>1</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="22" t="s">
+      <c r="C4" s="20">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="22">
-        <v>1</v>
-      </c>
-      <c r="G4" s="22">
-        <v>1</v>
-      </c>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
+      <c r="F4" s="20">
+        <v>1</v>
+      </c>
+      <c r="G4" s="20">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="15">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="15">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="15">
+        <v>2</v>
+      </c>
+      <c r="G6" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="6">
-        <v>2</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F7" s="15">
+        <v>2</v>
+      </c>
+      <c r="G7" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="15">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="6">
-        <v>2</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="F8" s="15">
+        <v>2</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="17">
-        <v>1</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="C9" s="23">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="17">
-        <v>1</v>
-      </c>
-      <c r="G9" s="17">
-        <v>1</v>
-      </c>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="F9" s="23">
+        <v>1</v>
+      </c>
+      <c r="G9" s="23">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
         <v>7</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="18">
-        <v>2</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="C11" s="20">
+        <v>2</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="18">
-        <v>3</v>
-      </c>
-      <c r="G11" s="18">
-        <v>1</v>
-      </c>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
+      <c r="F11" s="20">
+        <v>3</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="15">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="15">
+        <v>2</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="15">
+        <v>3</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>9</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="15">
+        <v>2</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>10</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="4">
-        <v>3</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>12</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>13</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="15">
+        <v>2</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>14</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1</v>
+      </c>
+      <c r="G18" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>15</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="15">
+        <v>2</v>
+      </c>
+      <c r="G19" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>16</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="15">
+        <v>2</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="15">
+        <v>1</v>
+      </c>
+      <c r="G20" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>17</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2</v>
+      </c>
+      <c r="D21" s="15">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="E21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="15">
+        <v>3</v>
+      </c>
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>18</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2</v>
+      </c>
+      <c r="D22" s="15">
+        <v>16</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="15">
+        <v>1</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>19</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="15">
+        <v>2</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="15">
+        <v>2</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28">
+        <v>20</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="28">
+        <v>2</v>
+      </c>
+      <c r="D24" s="28">
+        <v>9</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="28">
+        <v>1</v>
+      </c>
+      <c r="G24" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+    </row>
+    <row r="26" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>21</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27">
+        <v>22</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="27">
+        <v>3</v>
+      </c>
+      <c r="D27" s="27">
+        <v>2</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="27">
+        <v>3</v>
+      </c>
+      <c r="D28" s="27">
+        <v>13</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="27">
+        <v>1</v>
+      </c>
+      <c r="G28" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="27">
+        <v>3</v>
+      </c>
+      <c r="D29" s="27">
+        <v>13</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="27">
+        <v>1</v>
+      </c>
+      <c r="G29" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27">
+        <v>25</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="27">
+        <v>3</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="27">
+        <v>1</v>
+      </c>
+      <c r="G30" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27">
+        <v>26</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="27">
+        <v>3</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="27">
+        <v>1</v>
+      </c>
+      <c r="G31" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
+        <v>27</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="27">
+        <v>3</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="27">
+        <v>1</v>
+      </c>
+      <c r="G32" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27">
+        <v>28</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="27">
+        <v>3</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="27">
+        <v>3</v>
+      </c>
+      <c r="G33" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27">
+        <v>29</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="27">
+        <v>3</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="27">
+        <v>1</v>
+      </c>
+      <c r="G34" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="27">
+        <v>30</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="27">
+        <v>3</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="27">
+        <v>2</v>
+      </c>
+      <c r="G35" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="27">
+        <v>31</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="27">
+        <v>3</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="27">
+        <v>2</v>
+      </c>
+      <c r="G36" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="C37" s="15">
+        <v>3</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="15">
+        <v>1</v>
+      </c>
+      <c r="G37" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="27">
         <v>33</v>
       </c>
-      <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>13</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>15</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="4">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2</v>
-      </c>
-      <c r="G19" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4">
-        <v>9</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="4">
-        <v>3</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>18</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4">
-        <v>16</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>19</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="6">
-        <v>2</v>
-      </c>
-      <c r="G23" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
-        <v>20</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="12">
-        <v>2</v>
-      </c>
-      <c r="D24" s="12">
-        <v>9</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="12">
-        <v>1</v>
-      </c>
-      <c r="G24" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>21</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="13">
-        <v>3</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="13">
-        <v>1</v>
-      </c>
-      <c r="G26" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>22</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3</v>
-      </c>
-      <c r="D27" s="7">
-        <v>2</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="7">
-        <v>1</v>
-      </c>
-      <c r="G27" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>23</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="7">
-        <v>3</v>
-      </c>
-      <c r="D28" s="7">
-        <v>13</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="7">
-        <v>1</v>
-      </c>
-      <c r="G28" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>24</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="7">
-        <v>3</v>
-      </c>
-      <c r="D29" s="7">
-        <v>13</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="7">
-        <v>1</v>
-      </c>
-      <c r="G29" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>25</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="7">
-        <v>3</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="B38" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="15">
+        <v>3</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="7">
-        <v>1</v>
-      </c>
-      <c r="G30" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>26</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="7">
-        <v>3</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="7">
-        <v>1</v>
-      </c>
-      <c r="G31" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>27</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="7">
-        <v>3</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="7">
-        <v>1</v>
-      </c>
-      <c r="G32" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>28</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="7">
-        <v>3</v>
-      </c>
-      <c r="G33" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>29</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="7">
-        <v>3</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="7">
-        <v>1</v>
-      </c>
-      <c r="G34" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>30</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="7">
-        <v>3</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="7">
-        <v>2</v>
-      </c>
-      <c r="G35" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>31</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="7">
-        <v>3</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="7">
-        <v>2</v>
-      </c>
-      <c r="G36" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>32</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="4">
-        <v>3</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="4">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>33</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="4">
-        <v>3</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4">
-        <v>2</v>
-      </c>
+      <c r="E38" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="15">
+        <v>1</v>
+      </c>
+      <c r="G38" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="27"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
+      <c r="B40" s="27"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
+      <c r="B41" s="27"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
+      <c r="B42" s="27"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
+      <c r="B43" s="27"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
+      <c r="B44" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1810,51 +1812,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>53</v>
+      <c r="B3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="4">
         <v>42461</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="4">
         <v>42475</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="4">
         <v>42489</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
